--- a/log_history/Y4_B2627_Tropical_scanner1758095996114_48cf848c1c6a100a0f708434fde7273d7dc49b207321435bd27782e53b954ee5.xlsx
+++ b/log_history/Y4_B2627_Tropical_scanner1758095996114_48cf848c1c6a100a0f708434fde7273d7dc49b207321435bd27782e53b954ee5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
